--- a/excel/cronograma.xlsx
+++ b/excel/cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Google Drive\Engenharia de Computacao\Projeto Integrador\ProjetoIntegrador\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65CB5D-B492-43D9-8370-8571F36559D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9D1F7-6723-4017-A8E3-41225FF76D3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D1CE0EE-04D4-4605-AB8C-D76EBE8DBF9F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="4">
   <si>
     <t>METAS</t>
   </si>
@@ -292,9 +292,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -307,9 +304,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,14 +313,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -347,6 +335,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE2804A-2EDE-4559-9A89-F79FB05F62A9}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:Q32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="Q32" sqref="C18:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -685,10 +685,10 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="14"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -696,88 +696,88 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="14"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -793,393 +793,391 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="14" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="12">
         <v>44136</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>44166</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>44197</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>44228</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>44256</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <v>44287</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <v>44317</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <v>44348</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <v>44378</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <v>44409</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="9">
         <v>44440</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="9">
         <v>44470</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="9">
         <v>44501</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="E20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6">
+      <c r="C22" s="29"/>
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="8">
+      <c r="C23" s="29"/>
+      <c r="D23" s="7">
         <v>4</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6">
+      <c r="C24" s="29"/>
+      <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="8">
+      <c r="C25" s="29"/>
+      <c r="D25" s="7">
         <v>6</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="6">
+      <c r="C26" s="29"/>
+      <c r="D26" s="5">
         <v>7</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="8">
+      <c r="C27" s="29"/>
+      <c r="D27" s="7">
         <v>8</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="6">
+      <c r="C28" s="29"/>
+      <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="8">
+      <c r="C29" s="29"/>
+      <c r="D29" s="7">
         <v>10</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="6">
+      <c r="C30" s="29"/>
+      <c r="D30" s="5">
         <v>11</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="8">
+      <c r="C31" s="29"/>
+      <c r="D31" s="7">
         <v>12</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="6">
+      <c r="C32" s="29"/>
+      <c r="D32" s="5">
         <v>13</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>2</v>
       </c>
     </row>
